--- a/CollectionSoftware3/THIRUPATHI STORE.xlsx
+++ b/CollectionSoftware3/THIRUPATHI STORE.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A6:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -421,41 +421,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2023-07-18</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-07-18</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>31775</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45125</v>
-      </c>
-      <c r="B3" t="n">
-        <v>23791</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2023-07-19</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B6" t="n">
         <v>26107</v>
       </c>
     </row>

--- a/CollectionSoftware3/THIRUPATHI STORE.xlsx
+++ b/CollectionSoftware3/THIRUPATHI STORE.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A0:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,49 +421,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="0">
+      <c r="A0" t="inlineStr">
         <is>
           <t>24-07-2023</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>24-07-2023</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>33205</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>24-07-2023</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>27494</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>24-07-2023</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="B0" t="n">
         <v>62545</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>28148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
